--- a/коронавирус.xlsx
+++ b/коронавирус.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\teacher\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lot-w\Documents\lot\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="8" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="11" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Антонова Елена </t>
   </si>
@@ -253,6 +252,12 @@
   </si>
   <si>
     <t>Яковенко Кирилл </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -602,16 +607,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -619,7 +624,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2</v>
       </c>
@@ -627,7 +632,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>3</v>
       </c>
@@ -635,7 +640,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>4</v>
       </c>
@@ -643,7 +648,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>5</v>
       </c>
@@ -654,7 +659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>6</v>
       </c>
@@ -662,7 +667,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>7</v>
       </c>
@@ -670,7 +675,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>8</v>
       </c>
@@ -678,7 +683,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>9</v>
       </c>
@@ -686,7 +691,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>10</v>
       </c>
@@ -694,7 +699,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>11</v>
       </c>
@@ -702,7 +707,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>12</v>
       </c>
@@ -713,7 +718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>13</v>
       </c>
@@ -721,7 +726,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>14</v>
       </c>
@@ -729,7 +734,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>1</v>
       </c>
@@ -737,7 +742,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>2</v>
       </c>
@@ -745,7 +750,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>3</v>
       </c>
@@ -753,7 +758,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>4</v>
       </c>
@@ -761,7 +766,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>5</v>
       </c>
@@ -769,7 +774,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>6</v>
       </c>
@@ -777,7 +782,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>7</v>
       </c>
@@ -785,7 +790,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>8</v>
       </c>
@@ -793,7 +798,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>9</v>
       </c>
@@ -801,7 +806,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>10</v>
       </c>
@@ -809,7 +814,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>11</v>
       </c>
@@ -817,7 +822,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>12</v>
       </c>
@@ -825,7 +830,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>13</v>
       </c>
@@ -833,7 +838,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>14</v>
       </c>
@@ -844,7 +849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>15</v>
       </c>
@@ -862,208 +867,317 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:D31"/>
+  <dimension ref="A5:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="27.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="3:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E5" t="str">
+        <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
+        <v>4x**2 +3*x +-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
       <c r="C6" s="2">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="3:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E6" t="str">
+        <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
+        <v>5x**2 -4*x -4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="3:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E7" t="str">
+        <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
+        <v>4x**2 -5*x +3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C8" s="2">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="3:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E8" t="str">
+        <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
+        <v>5x**2 -3*x +-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C9" s="2">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="3:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E9" t="str">
+        <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
+        <v>2x**2 +-2*x +7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C10" s="2">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="3:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E10" t="str">
+        <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
+        <v>3x**2 +-3*x -10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C11" s="2">
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="3:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E11" t="str">
+        <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
+        <v>3x**2 -0*x -8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C12" s="2">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="3:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E12" t="str">
+        <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
+        <v>3x**2 +5*x +8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C13" s="2">
         <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="3:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E13" t="str">
+        <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
+        <v>3x**2 +-3*x -10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C14" s="2">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="3:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E14" t="str">
+        <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
+        <v>4x**2 +-5*x -3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C15" s="2">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="3:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E15" t="str">
+        <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
+        <v>5x**2 +3*x +-9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C16" s="2">
         <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="3:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E16" t="str">
+        <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
+        <v>2x**2 +-5*x +1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C20" s="2">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="3:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E20" t="str">
+        <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
+        <v>5x**2 +0*x -0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C21" s="2">
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="3:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E21" t="str">
+        <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
+        <v>5x**2 -3*x -5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C22" s="2">
         <v>3</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="3:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E22" t="str">
+        <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
+        <v>3x**2 +-4*x +6</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C23" s="2">
         <v>4</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="3:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E23" t="str">
+        <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
+        <v>3x**2 --2*x -5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C24" s="2">
         <v>5</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="3:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E24" t="str">
+        <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
+        <v>5x**2 +2*x +-3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C25" s="2">
         <v>6</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="3:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E25" t="str">
+        <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
+        <v>3x**2 +-5*x +10</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C26" s="2">
         <v>7</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="3:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E26" t="str">
+        <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
+        <v>4x**2 +2*x +-4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C27" s="2">
         <v>8</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="3:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E27" t="str">
+        <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
+        <v>3x**2 +-4*x --1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C28" s="2">
         <v>9</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="3:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E28" t="str">
+        <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
+        <v>5x**2 +1*x --7</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C29" s="2">
         <v>10</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="3:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E29" t="str">
+        <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
+        <v>5x**2 -4*x --7</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C30" s="2">
         <v>11</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="3:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E30" t="str">
+        <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
+        <v>3x**2 -5*x +-6</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C31" s="2">
         <v>12</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="E31" t="str">
+        <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
+        <v>3x**2 +4*x --7</v>
       </c>
     </row>
   </sheetData>
@@ -1079,12 +1193,12 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -1092,7 +1206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -1100,7 +1214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -1108,7 +1222,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>4</v>
       </c>
@@ -1116,7 +1230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>5</v>
       </c>
@@ -1124,7 +1238,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>6</v>
       </c>
@@ -1132,7 +1246,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>7</v>
       </c>
@@ -1140,7 +1254,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>8</v>
       </c>
@@ -1148,7 +1262,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>9</v>
       </c>
@@ -1156,7 +1270,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>10</v>
       </c>
@@ -1164,7 +1278,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>11</v>
       </c>
@@ -1172,7 +1286,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>12</v>
       </c>
@@ -1193,12 +1307,12 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>1</v>
       </c>
@@ -1206,7 +1320,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="3:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>2</v>
       </c>
@@ -1214,7 +1328,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="3:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>3</v>
       </c>
@@ -1222,7 +1336,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="3:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>4</v>
       </c>
@@ -1230,7 +1344,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="3:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>5</v>
       </c>
@@ -1238,7 +1352,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="3:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>6</v>
       </c>
@@ -1246,7 +1360,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="3:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>7</v>
       </c>
@@ -1254,7 +1368,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="3:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>8</v>
       </c>
@@ -1262,7 +1376,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="3:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>9</v>
       </c>
@@ -1270,7 +1384,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="3:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>10</v>
       </c>

--- a/коронавирус.xlsx
+++ b/коронавирус.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="8" sheetId="5" r:id="rId1"/>
@@ -296,12 +296,42 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -316,13 +346,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
   </cellXfs>
@@ -869,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -890,12 +932,12 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="str">
         <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
-        <v>4x**2 +3*x +-3</v>
+        <v>2x**2 --4*x -4</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
@@ -913,163 +955,163 @@
       </c>
       <c r="E6" t="str">
         <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
-        <v>5x**2 -4*x -4</v>
+        <v>3x**2 +2*x +4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E7" t="str">
         <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
-        <v>4x**2 -5*x +3</v>
+        <v>2x**2 -1*x +-8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C8" s="2">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="str">
         <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
-        <v>5x**2 -3*x +-5</v>
+        <v>2x**2 --2*x --9</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C9" s="2">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E9" t="str">
         <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
-        <v>2x**2 +-2*x +7</v>
+        <v>2x**2 +4*x +3</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C10" s="2">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="str">
         <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
-        <v>3x**2 +-3*x -10</v>
+        <v>2x**2 +-5*x +10</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C11" s="2">
         <v>7</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E11" t="str">
         <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
-        <v>3x**2 -0*x -8</v>
+        <v>2x**2 -4*x --1</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C12" s="2">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="str">
         <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
-        <v>3x**2 +5*x +8</v>
+        <v>4x**2 +2*x -4</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C13" s="2">
         <v>9</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="str">
         <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
-        <v>3x**2 +-3*x -10</v>
+        <v>2x**2 +2*x +-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C14" s="2">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E14" t="str">
         <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
-        <v>4x**2 +-5*x -3</v>
+        <v>2x**2 +-5*x +4</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C15" s="2">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E15" t="str">
         <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
-        <v>5x**2 +3*x +-9</v>
+        <v>3x**2 --4*x -4</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C16" s="2">
         <v>12</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E16" t="str">
         <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
-        <v>2x**2 +-5*x +1</v>
+        <v>5x**2 +-2*x +-9</v>
       </c>
     </row>
     <row r="20" spans="3:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E20" t="str">
         <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
-        <v>5x**2 +0*x -0</v>
+        <v>3x**2 +2*x +-1</v>
       </c>
     </row>
     <row r="21" spans="3:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C21" s="2">
         <v>2</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E21" t="str">
         <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
-        <v>5x**2 -3*x -5</v>
+        <v>5x**2 --4*x +1</v>
       </c>
     </row>
     <row r="22" spans="3:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C22" s="2">
         <v>3</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E22" t="str">
         <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
-        <v>3x**2 +-4*x +6</v>
+        <v>4x**2 --3*x -9</v>
       </c>
     </row>
     <row r="23" spans="3:5" ht="19.2" x14ac:dyDescent="0.3">
@@ -1081,79 +1123,79 @@
       </c>
       <c r="E23" t="str">
         <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
-        <v>3x**2 --2*x -5</v>
+        <v>5x**2 +-1*x +-6</v>
       </c>
     </row>
     <row r="24" spans="3:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C24" s="2">
         <v>5</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E24" t="str">
         <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
-        <v>5x**2 +2*x +-3</v>
+        <v>4x**2 +-5*x -7</v>
       </c>
     </row>
     <row r="25" spans="3:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C25" s="2">
         <v>6</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E25" t="str">
         <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
-        <v>3x**2 +-5*x +10</v>
+        <v>5x**2 -1*x +-4</v>
       </c>
     </row>
     <row r="26" spans="3:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C26" s="2">
         <v>7</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E26" t="str">
         <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
-        <v>4x**2 +2*x +-4</v>
+        <v>2x**2 --5*x -5</v>
       </c>
     </row>
     <row r="27" spans="3:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C27" s="2">
         <v>8</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E27" t="str">
         <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
-        <v>3x**2 +-4*x --1</v>
+        <v>4x**2 --3*x -9</v>
       </c>
     </row>
     <row r="28" spans="3:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C28" s="2">
         <v>9</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E28" t="str">
         <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
-        <v>5x**2 +1*x --7</v>
+        <v>2x**2 +0*x +3</v>
       </c>
     </row>
     <row r="29" spans="3:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C29" s="2">
         <v>10</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E29" t="str">
         <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
-        <v>5x**2 -4*x --7</v>
+        <v>2x**2 -3*x -1</v>
       </c>
     </row>
     <row r="30" spans="3:5" ht="19.2" x14ac:dyDescent="0.3">
@@ -1165,19 +1207,19 @@
       </c>
       <c r="E30" t="str">
         <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
-        <v>3x**2 -5*x +-6</v>
+        <v>5x**2 -0*x --2</v>
       </c>
     </row>
     <row r="31" spans="3:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="C31" s="2">
         <v>12</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E31" t="str">
         <f ca="1">RANDBETWEEN(2,5)&amp;"x**2 "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-5,5)&amp;"*x "&amp;INDEX($A$5:B$6,MATCH(RANDBETWEEN(1,2),$A$5:$A$6),2)&amp;RANDBETWEEN(-10,10)</f>
-        <v>3x**2 +4*x --7</v>
+        <v>2x**2 +-5*x +10</v>
       </c>
     </row>
   </sheetData>
